--- a/logs/trades.xlsx
+++ b/logs/trades.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +549,546 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>T_0001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>T_0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>T_0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>T_0004</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46027.94680055555</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>46027.94742711806</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>eth-updown-15m-1767654000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ethereum Up or Down - January 5, 6:00PM-6:15PM ET</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>41686680340009771675399503424388372739338881218887041938874106719457428336212</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.07500000000000007</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-3.092783505154642</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>STOP_LOSS (down 3.1%)</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>54.135304</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>85</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>T_0005</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46027.94678383102</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>46027.94864461805</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>btc-updown-15m-1767654000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bitcoin Up or Down - January 5, 6:00PM-6:15PM ET</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15636930014821702666232837833456737950511417024963853248233903974523551036959</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-3.960396039603964</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>STOP_LOSS (down 4.0%)</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>160.772211</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>85</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>T_0006</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>46027.9471405787</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>46027.94865019676</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>btc-updown-15m-1767654000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bitcoin Up or Down - January 5, 6:00PM-6:15PM ET</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15636930014821702666232837833456737950511417024963853248233903974523551036959</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.07500000000000007</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-3.000000000000003</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>STOP_LOSS (down 3.0%)</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>130.430873</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>85</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>T_0007</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>46027.94750930556</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>46027.94865413194</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>btc-updown-15m-1767654000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bitcoin Up or Down - January 5, 6:00PM-6:15PM ET</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15636930014821702666232837833456737950511417024963853248233903974523551036959</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.996907216494845</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.07495360824742275</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-3.000000000000003</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>STOP_LOSS (down 3.0%)</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>98.91341199999999</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>85</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>T_0008</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>46027.94877450231</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>46027.95720789352</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>eth-updown-15m-1767654900</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ethereum Up or Down - January 5, 6:15PM-6:30PM ET</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>45310018941434604568075267422849582557681254133107994148380982702739702947056</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.320692332994998</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.04320692332995002</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1.980198019801982</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>MAX_TIME (12.1 min)</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>728.645211</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>76</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>T_0009</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>46027.94880792089</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>46027.95721136957</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>btc-updown-15m-1767654900</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bitcoin Up or Down - January 5, 6:15PM-6:30PM ET</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>66143561173921179637077405065253444202426684708092835829276747101586495410226</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.320692332994998</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.04320692332995002</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.980198019801982</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>MAX_TIME (12.1 min)</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>726.057966</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>76</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/trades.xlsx
+++ b/logs/trades.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +549,158 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>T_0001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46028.06429717592</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>46028.06483881945</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>eth-updown-15m-1767663900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ethereum Up or Down - January 5, 8:45PM-9:00PM ET</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>82305470999346288835007647903068954073105635720820601714459832234291951995392</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.041666666666668</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MEAN_REVERSION (@ $0.4850)</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>46.798516</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>85</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Priority 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>T_0002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46028.06469672605</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>46028.06484028603</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>eth-updown-15m-1767663900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ethereum Up or Down - January 5, 8:45PM-9:00PM ET</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>82305470999346288835007647903068954073105635720820601714459832234291951995392</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.041666666666668</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>MEAN_REVERSION (@ $0.4850)</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>12.403582</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>85</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Priority 2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
